--- a/data/long_bre/P23_10-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_10-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-20,81%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-20,43%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-14,4%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -0,03</t>
+          <t>-11,32; 0,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 0,17</t>
+          <t>-12,58; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 0,42</t>
+          <t>-9,27; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 1,39</t>
+          <t>-36,47; 1,89</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-42,08; 3,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-34,67; 18,12</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26,63%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 14,56</t>
+          <t>-2,18; 12,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 13,32</t>
+          <t>0,01; 13,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 32,6</t>
+          <t>4,64; 21,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 27,93</t>
+          <t>-3,96; 25,81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 28,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 56,19</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-6,41%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-29,13%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 5,63</t>
+          <t>-5,14; 6,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 4,27</t>
+          <t>-7,04; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 30,81</t>
+          <t>-20,78; -1,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 22,69</t>
+          <t>-21,23; 35,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-28,17; 16,72</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-52,2; -5,2</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 14,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 81,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,75; -6,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-28,25%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 3,27</t>
+          <t>0,73; 14,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 16,44</t>
+          <t>-15,22; -1,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 5,98</t>
+          <t>-4,83; 10,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 34,17</t>
+          <t>2,64; 82,89</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-45,85; -5,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; 62,42</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-6,27%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 3,69</t>
+          <t>-12,78; 3,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,63</t>
+          <t>2,73; 17,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 17,44</t>
+          <t>-13,52; 5,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 30,59</t>
+          <t>-22,08; 7,93</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 37,68</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-21,52; 10,66</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,52</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-44,81%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-10,16%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,1; -0,36</t>
+          <t>-9,7; 4,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 14,46</t>
+          <t>-7,38; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-69,65; -0,44</t>
+          <t>-7,24; 8,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 177,04</t>
+          <t>-32,46; 19,87</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-31,24; 22,59</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 51,66</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 25,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 9,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 69,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 18,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-12,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>-39,14%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-38,64%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 18,81</t>
+          <t>-25,9; 2,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 11,85</t>
+          <t>-11,77; 13,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 162,4</t>
+          <t>-28,28; 5,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 64,12</t>
+          <t>-65,24; 12,89</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-53,38; 156,08</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-71,01; 30,25</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>26,47</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-7,28%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69,44%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,75</t>
+          <t>-6,33; 26,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,71</t>
+          <t>-17,49; 11,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 11,29</t>
+          <t>7,22; 43,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,73; -3,22</t>
+          <t>-11,86; 75,0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-26,02; 21,21</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 166,69</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>-15,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-46,18%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,61</t>
+          <t>-18,78; 17,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,56</t>
+          <t>-11,92; 11,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 16,0</t>
+          <t>-41,91; 1,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,5; 20,64</t>
+          <t>-51,11; 147,46</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-38,16; 59,92</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-80,67; 9,15</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 15,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-5,09%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-20,53%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-8,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 3,06</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; -1,19</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 2,69</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-20,02; 13,21</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; -4,89</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-26,8; 13,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7,66</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 7,41</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 11,17</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 13,81</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 15,01</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 22,25</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 29,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-6,59%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 3,33</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 2,09</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; -0,32</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; 17,0</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 10,38</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-38,42; -0,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
